--- a/application/plugins/Reports_summary_sell_profit/views/Reports_summary_sell_profit.xlsx
+++ b/application/plugins/Reports_summary_sell_profit/views/Reports_summary_sell_profit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -484,6 +484,39 @@
       <left/>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -496,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -540,6 +573,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,71 +636,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,211 +971,221 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" customWidth="1"/>
-    <col min="5" max="10" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" customWidth="1"/>
+    <col min="5" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="24" t="s">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="12" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="F15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="42" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="37"/>
       <c r="J15" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="22" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="14" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
         <v>1</v>
       </c>
+      <c r="I16" s="43"/>
       <c r="J16" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="20" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="44" t="s">
         <v>24</v>
       </c>
+      <c r="I17" s="44"/>
       <c r="J17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="1"/>
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30" t="s">
+      <c r="I20" s="33"/>
+      <c r="J20" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="16" t="s">
         <v>7</v>
@@ -1150,9 +1208,9 @@
       <c r="I21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1193,11 +1251,24 @@
       <c r="J23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E14:J14"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -1206,13 +1277,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
